--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/UnifiedLawIteration.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/UnifiedLawIteration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547473CE-B660-4F59-8DB1-BEDF9113804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD66A291-C452-4254-A18A-3936775F77ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>95</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,33 +971,12 @@
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <v>100</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="C26">
         <v>1000</v>
       </c>
-      <c r="I26" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J26" s="2">
-        <v>100000</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -1054,20 +1033,8 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33">
         <v>0.1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1080,11 +1047,6 @@
       <c r="C34">
         <v>200</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1099,10 +1061,6 @@
       <c r="C35">
         <v>-2</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
@@ -1115,14 +1073,9 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>1E-4</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1134,9 +1087,6 @@
       <c r="C38">
         <v>200</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1148,10 +1098,6 @@
       <c r="C39">
         <v>-2</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
@@ -1159,11 +1105,6 @@
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -1173,7 +1114,7 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
@@ -1183,7 +1124,7 @@
         <v>121</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1286,7 +1227,6 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <f>-1/12*PI()</f>
         <v>-0.26179938779914941</v>
       </c>
     </row>
@@ -1298,7 +1238,6 @@
         <v>50</v>
       </c>
       <c r="C56">
-        <f>1/12*PI()</f>
         <v>0.26179938779914941</v>
       </c>
     </row>
@@ -1310,7 +1249,6 @@
         <v>51</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57" si="0">11/6*PI()</f>
         <v>5.7595865315812871</v>
       </c>
     </row>
@@ -1335,7 +1273,6 @@
         <v>55</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" si="1">-2.3782</f>
         <v>-2.3782000000000001</v>
       </c>
     </row>
@@ -1394,14 +1331,9 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -1410,16 +1342,16 @@
       <c r="B69" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="b">
-        <v>1</v>
+      <c r="C69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="b">
-        <v>1</v>
+      <c r="C70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -1427,15 +1359,15 @@
         <v>69</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="b">
-        <v>1</v>
+      <c r="C72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -1470,7 +1402,7 @@
         <v>104</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -1491,7 +1423,7 @@
         <v>75</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1635,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F4AA9B-FC66-4A95-B187-34F696BBEB40}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -2374,7 +2306,7 @@
         <v>51</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:D57" si="0">11/6*PI()</f>
+        <f t="shared" ref="C57" si="0">11/6*PI()</f>
         <v>5.7595865315812871</v>
       </c>
       <c r="D57">
